--- a/resource/video_Data.xlsx
+++ b/resource/video_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SerKin0\Documents\LaTeX\Лабораторная работа 7-Дифференцирование и интегрирование сигналов\IBTC-physics-2k3s-latex-dif_int_signal\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F71B233-A963-4AEC-8975-59B544F4C054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E5E52B-EA53-4BA1-A697-CDA6CC1ACDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B09A486-D1E0-49D2-B078-B92C9F9960FE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="131">
   <si>
     <t>Операция</t>
   </si>
@@ -207,13 +207,238 @@
   </si>
   <si>
     <t>Исходные параметры 1 кГц</t>
+  </si>
+  <si>
+    <t>20251204_141635</t>
+  </si>
+  <si>
+    <t>Частота 1000 Гц</t>
+  </si>
+  <si>
+    <t>Усеченная синусойда</t>
+  </si>
+  <si>
+    <t>20251204_141704</t>
+  </si>
+  <si>
+    <t>20251204_141754</t>
+  </si>
+  <si>
+    <t>20251204_143253</t>
+  </si>
+  <si>
+    <t>20251204_143527</t>
+  </si>
+  <si>
+    <t>20251204_143813</t>
+  </si>
+  <si>
+    <t>Увеличили R</t>
+  </si>
+  <si>
+    <t>Уменьшили R</t>
+  </si>
+  <si>
+    <t>20251204_143835</t>
+  </si>
+  <si>
+    <t>Уменьшили С и R</t>
+  </si>
+  <si>
+    <t>Увеличили С и R</t>
+  </si>
+  <si>
+    <t>20251204_143912</t>
+  </si>
+  <si>
+    <t>20251204_144032</t>
+  </si>
+  <si>
+    <t>Увеличение частоты сигнала в 2 раза</t>
+  </si>
+  <si>
+    <t>20251204_144114</t>
+  </si>
+  <si>
+    <t>Увеличение частоты сигнала в 5 раз</t>
+  </si>
+  <si>
+    <t>20251204_144334</t>
+  </si>
+  <si>
+    <t>20251204_144408</t>
+  </si>
+  <si>
+    <t>Уменьшение частоты сигнала в 4 раза</t>
+  </si>
+  <si>
+    <t>20251204_152318</t>
+  </si>
+  <si>
+    <t>Описание (дохуя болтаешь)</t>
+  </si>
+  <si>
+    <t>Описание (Дохуя болтаешь)</t>
+  </si>
+  <si>
+    <t>20251204_152358</t>
+  </si>
+  <si>
+    <t>Хуйня</t>
+  </si>
+  <si>
+    <t>20251204_152425</t>
+  </si>
+  <si>
+    <t>Продолжаешь болтать</t>
+  </si>
+  <si>
+    <t>20251204_152532</t>
+  </si>
+  <si>
+    <t>20251204_152623</t>
+  </si>
+  <si>
+    <t>Уменьшили С</t>
+  </si>
+  <si>
+    <t>20251204_152641</t>
+  </si>
+  <si>
+    <t>20251204_152705</t>
+  </si>
+  <si>
+    <t>20251204_152744</t>
+  </si>
+  <si>
+    <t>20251204_152809</t>
+  </si>
+  <si>
+    <t>Увеличение частоты сигнала в 4 раза</t>
+  </si>
+  <si>
+    <t>20251204_152921</t>
+  </si>
+  <si>
+    <t>20251204_153155</t>
+  </si>
+  <si>
+    <t>20251204_155901</t>
+  </si>
+  <si>
+    <t>Треугольник</t>
+  </si>
+  <si>
+    <t>20251204_155930</t>
+  </si>
+  <si>
+    <t>20251204_155948</t>
+  </si>
+  <si>
+    <t>Увеличили C</t>
+  </si>
+  <si>
+    <t>20251204_160014</t>
+  </si>
+  <si>
+    <t>20251204_160059</t>
+  </si>
+  <si>
+    <t>20251204_160123</t>
+  </si>
+  <si>
+    <t>20251204_160133</t>
+  </si>
+  <si>
+    <t>Уменьшение частоты сигнала в 5 раз</t>
+  </si>
+  <si>
+    <t>20251204_160214</t>
+  </si>
+  <si>
+    <t>Уменьшение частоты сигнала в 30 раз</t>
+  </si>
+  <si>
+    <t>20251204_160307</t>
+  </si>
+  <si>
+    <t>20251204_160419</t>
+  </si>
+  <si>
+    <t>20251204_160434</t>
+  </si>
+  <si>
+    <t>20251204_160447</t>
+  </si>
+  <si>
+    <t>20251204_160453</t>
+  </si>
+  <si>
+    <t>20251204_160531</t>
+  </si>
+  <si>
+    <t>20251204_160559</t>
+  </si>
+  <si>
+    <t>20251204_160649</t>
+  </si>
+  <si>
+    <t>Уменьшение частоты сигнала в 50 раз</t>
+  </si>
+  <si>
+    <t>20251204_161527</t>
+  </si>
+  <si>
+    <t>20251204_161802</t>
+  </si>
+  <si>
+    <t>20251204_161819</t>
+  </si>
+  <si>
+    <t>20251204_161827</t>
+  </si>
+  <si>
+    <t>20251204_162526</t>
+  </si>
+  <si>
+    <t>20251204_162542</t>
+  </si>
+  <si>
+    <t>20251204_162553</t>
+  </si>
+  <si>
+    <t>20251204_162603</t>
+  </si>
+  <si>
+    <t>20251204_162620</t>
+  </si>
+  <si>
+    <t>20251204_162629</t>
+  </si>
+  <si>
+    <t>20251204_162650</t>
+  </si>
+  <si>
+    <t>20251204_162714</t>
+  </si>
+  <si>
+    <t>20251204_162727</t>
+  </si>
+  <si>
+    <t>20251204_162739</t>
+  </si>
+  <si>
+    <t>20251204_165422</t>
+  </si>
+  <si>
+    <t>1/10 от исходного сигнала</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +450,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,6 +492,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -317,8 +555,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D1FA872-6890-40A7-BF16-F00855667840}" name="Таблица1" displayName="Таблица1" ref="A1:F29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:F29" xr:uid="{3D1FA872-6890-40A7-BF16-F00855667840}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D1FA872-6890-40A7-BF16-F00855667840}" name="Таблица1" displayName="Таблица1" ref="A1:F83" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:F83" xr:uid="{3D1FA872-6890-40A7-BF16-F00855667840}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6EC3589D-D6FE-4A65-8D2D-DE5ABAF7D0CE}" name="Имя Файла"/>
     <tableColumn id="2" xr3:uid="{C2ED95E7-5CDA-42AA-976C-6F01B9E93B06}" name="Операция" dataDxfId="4"/>
@@ -648,19 +886,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2B7ACD-F029-42B8-8C4B-4928397D9065}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -870,6 +1108,9 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -881,6 +1122,9 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F13" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -948,6 +1192,9 @@
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F18" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1133,10 +1380,917 @@
         <v>53</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>500</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="1">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="1">
+        <v>500</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>500</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="1">
+        <v>500</v>
+      </c>
+      <c r="E45" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="1">
+        <v>500</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="1">
+        <v>50</v>
+      </c>
+      <c r="E47" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="1">
+        <v>500</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="1">
+        <v>10</v>
+      </c>
+      <c r="E55" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>200</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="1">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="1">
+        <v>500</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>500</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>500</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="1">
+        <v>10</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="1">
+        <v>50</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="1">
+        <v>100</v>
+      </c>
+      <c r="E75" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E76" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="1">
+        <v>5</v>
+      </c>
+      <c r="E77" s="1">
+        <v>500</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>200</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="1">
+        <v>500</v>
+      </c>
+      <c r="E79" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E80" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="1">
+        <v>100</v>
+      </c>
+      <c r="E81" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="1">
+        <v>50</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>129</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>